--- a/data/trans_orig/P36B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>40479</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28638</v>
+        <v>29562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53182</v>
+        <v>54790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09700076960437604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06862538381215996</v>
+        <v>0.07083864258718457</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1274405149994572</v>
+        <v>0.1312926290852472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -762,19 +762,19 @@
         <v>60836</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49144</v>
+        <v>47262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76872</v>
+        <v>75710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1537212057503566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1241781957222184</v>
+        <v>0.1194232463356681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.194240397743585</v>
+        <v>0.1913050096554795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -783,19 +783,19 @@
         <v>101315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83479</v>
+        <v>84971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121095</v>
+        <v>120238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1246091450760785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1026724926310362</v>
+        <v>0.1045065843528562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1489365390485344</v>
+        <v>0.1478826554483619</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>47298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34743</v>
+        <v>34241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61219</v>
+        <v>62250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1133399716730668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08325397473681753</v>
+        <v>0.08205069461879412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1466994190819546</v>
+        <v>0.149169275244419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -833,19 +833,19 @@
         <v>36723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27390</v>
+        <v>26649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48676</v>
+        <v>48722</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09279271568299431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0692105375615705</v>
+        <v>0.06733755663741962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1229960678682281</v>
+        <v>0.1231120999276516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -854,19 +854,19 @@
         <v>84021</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67627</v>
+        <v>67984</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102862</v>
+        <v>102527</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1033387023452513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08317484284129877</v>
+        <v>0.08361423609355671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1265115352546081</v>
+        <v>0.126099700117157</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>76747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61047</v>
+        <v>61545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93689</v>
+        <v>91977</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1839084823590206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1462877597188479</v>
+        <v>0.1474797237267736</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.224506979877639</v>
+        <v>0.2204049797547601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -904,19 +904,19 @@
         <v>86615</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71431</v>
+        <v>71521</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>103044</v>
+        <v>103682</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2188594843415344</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1804936317434415</v>
+        <v>0.1807208327066508</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2603724947820448</v>
+        <v>0.2619853416910407</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -925,19 +925,19 @@
         <v>163362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142037</v>
+        <v>141057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186325</v>
+        <v>186845</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2009206996727592</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1746934059658532</v>
+        <v>0.1734885797057775</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.229163925306677</v>
+        <v>0.2298028357128768</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>113649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95150</v>
+        <v>96179</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132214</v>
+        <v>132636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2723371575143714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2280089583341695</v>
+        <v>0.2304741822238821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3168253248310052</v>
+        <v>0.3178351536576755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -975,19 +975,19 @@
         <v>108338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92238</v>
+        <v>92372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126357</v>
+        <v>125380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2737507189283777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2330685221817958</v>
+        <v>0.2334077894674815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3192801321568488</v>
+        <v>0.3168127680212552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -996,19 +996,19 @@
         <v>221987</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196726</v>
+        <v>198929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249995</v>
+        <v>249830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2730252011353646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2419557882362842</v>
+        <v>0.2446652137704417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3074728459289268</v>
+        <v>0.3072690230086852</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>139137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120976</v>
+        <v>120927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158832</v>
+        <v>159836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3334136188491653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2898940151794383</v>
+        <v>0.2897780294006292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3806090197080514</v>
+        <v>0.3830149515277405</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>106</v>
@@ -1046,19 +1046,19 @@
         <v>103243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86054</v>
+        <v>86741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119668</v>
+        <v>120665</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2608758752967371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2174437067323481</v>
+        <v>0.2191775086484462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3023798220781141</v>
+        <v>0.3048988544378271</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -1067,19 +1067,19 @@
         <v>242380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216738</v>
+        <v>215764</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269674</v>
+        <v>268984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2981062517705463</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.266569403397151</v>
+        <v>0.2653711461837313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3316757792206515</v>
+        <v>0.3308266138914067</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>81882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66835</v>
+        <v>65498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101569</v>
+        <v>101233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1389131302205226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1133857304444296</v>
+        <v>0.1111179036540696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1723109705136172</v>
+        <v>0.1717410951059356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1192,19 +1192,19 @@
         <v>108230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89907</v>
+        <v>91463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128480</v>
+        <v>125859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1923858496910087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1598159032122115</v>
+        <v>0.1625820612224498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2283818032894843</v>
+        <v>0.223722993795923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -1213,19 +1213,19 @@
         <v>190112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167344</v>
+        <v>167095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218891</v>
+        <v>217126</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.165025595403736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1452621319015619</v>
+        <v>0.1450454654222229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1900067851928579</v>
+        <v>0.1884743112547204</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>69068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54142</v>
+        <v>54034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86194</v>
+        <v>87009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1171742084668899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09185109957078458</v>
+        <v>0.09166919862129075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1462280659019353</v>
+        <v>0.1476108787196324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -1263,19 +1263,19 @@
         <v>81832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66908</v>
+        <v>67115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97760</v>
+        <v>98016</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1454612087634971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1189339049448154</v>
+        <v>0.1193010505020377</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1737748875705373</v>
+        <v>0.1742304496754265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>151</v>
@@ -1284,19 +1284,19 @@
         <v>150900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129779</v>
+        <v>129753</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177498</v>
+        <v>176314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1309876691941005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1126541311914108</v>
+        <v>0.1126308915020609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.15407576813454</v>
+        <v>0.15304787706541</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>124289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105399</v>
+        <v>104174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144636</v>
+        <v>143392</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2108566053855026</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.178809055081641</v>
+        <v>0.176731664533047</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2453738703749284</v>
+        <v>0.2432646630548102</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -1334,19 +1334,19 @@
         <v>121478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104527</v>
+        <v>102698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>140878</v>
+        <v>140044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2159355327269561</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.185804025458187</v>
+        <v>0.1825527947343479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2504204291696209</v>
+        <v>0.2489379450709771</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>250</v>
@@ -1355,19 +1355,19 @@
         <v>245768</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>219826</v>
+        <v>217278</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>273927</v>
+        <v>274737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2133368105197296</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1908183316684035</v>
+        <v>0.1886066724828017</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2377804035766984</v>
+        <v>0.2384830788706075</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>171929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>150848</v>
+        <v>150240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194567</v>
+        <v>195332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2916767777065025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2559128438895392</v>
+        <v>0.2548823584690965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3300822622671165</v>
+        <v>0.3313808289720057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -1405,19 +1405,19 @@
         <v>125032</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107619</v>
+        <v>107425</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145593</v>
+        <v>144205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2222534498028164</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1913007374637752</v>
+        <v>0.1909555883669263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2588009275478905</v>
+        <v>0.2563345579121169</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -1426,19 +1426,19 @@
         <v>296961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>269648</v>
+        <v>268765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>326475</v>
+        <v>325250</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2577751125071406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.23406563843752</v>
+        <v>0.2332998224621932</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2833944966265583</v>
+        <v>0.2823310440878672</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>142281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121612</v>
+        <v>121470</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163963</v>
+        <v>164115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2413792782205824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2063142180618142</v>
+        <v>0.2060734864635827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2781620541899408</v>
+        <v>0.278420703278988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1476,19 +1476,19 @@
         <v>125995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>103764</v>
+        <v>108170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144010</v>
+        <v>145609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2239639590157217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.184448213840424</v>
+        <v>0.1922801484628561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2559870889858702</v>
+        <v>0.2588290180385688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -1497,19 +1497,19 @@
         <v>268276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>242082</v>
+        <v>241054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>295214</v>
+        <v>297522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2328748123752933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.210137735612429</v>
+        <v>0.2092452127153811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2562581872442383</v>
+        <v>0.2582621266349715</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>139262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116380</v>
+        <v>117531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160017</v>
+        <v>160765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2087814395270511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1744765845021125</v>
+        <v>0.1762023583742526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2398972808470237</v>
+        <v>0.2410195078427791</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -1622,19 +1622,19 @@
         <v>163239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141917</v>
+        <v>143636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>187203</v>
+        <v>186146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2478393360283917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2154681808648255</v>
+        <v>0.2180772562048003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2842238920682268</v>
+        <v>0.2826180247658291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>293</v>
@@ -1643,19 +1643,19 @@
         <v>302500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>274251</v>
+        <v>271801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>333678</v>
+        <v>334012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2281870046559448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2068774870012283</v>
+        <v>0.2050295668364926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2517050933659992</v>
+        <v>0.251957305110883</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>104342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85400</v>
+        <v>87624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124353</v>
+        <v>128041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.156429170226762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1280322792544533</v>
+        <v>0.1313666862763194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1864302043796967</v>
+        <v>0.1919591622149779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -1693,19 +1693,19 @@
         <v>124139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104216</v>
+        <v>105688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144814</v>
+        <v>145255</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1884751419696974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1582277448233572</v>
+        <v>0.1604627119672017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2198656187355491</v>
+        <v>0.220534765508073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>218</v>
@@ -1714,19 +1714,19 @@
         <v>228480</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202518</v>
+        <v>201926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255537</v>
+        <v>258695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1723509235079423</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1527667124495514</v>
+        <v>0.1523203131198697</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1927607883392967</v>
+        <v>0.1951429149512287</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>142138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122415</v>
+        <v>123039</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>165510</v>
+        <v>162982</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2130933157972116</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1835254094447483</v>
+        <v>0.1844601289172552</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2481324719935841</v>
+        <v>0.2443421804225582</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>124</v>
@@ -1764,19 +1764,19 @@
         <v>121500</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103210</v>
+        <v>103885</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>142826</v>
+        <v>144514</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1844694651936121</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.156700275039599</v>
+        <v>0.1577251401221641</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.216848316031079</v>
+        <v>0.2194101136481536</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>261</v>
@@ -1785,19 +1785,19 @@
         <v>263638</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>237430</v>
+        <v>235066</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>292652</v>
+        <v>291714</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1988718126727715</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1791018903515485</v>
+        <v>0.1773187189191096</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2207576284924647</v>
+        <v>0.2200505650511327</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>167468</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>146171</v>
+        <v>146384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190962</v>
+        <v>189845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2510688234118327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2191398560568857</v>
+        <v>0.2194597011604523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.286289823745891</v>
+        <v>0.2846153247939893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -1835,19 +1835,19 @@
         <v>128344</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109178</v>
+        <v>108408</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>150192</v>
+        <v>146552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1948606944023358</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1657608729679856</v>
+        <v>0.164592038784711</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2280316968069418</v>
+        <v>0.2225046423573477</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>293</v>
@@ -1856,19 +1856,19 @@
         <v>295813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>265523</v>
+        <v>264995</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>327592</v>
+        <v>325348</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2231423192738126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2002934682615213</v>
+        <v>0.1998954123496635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2471147336369041</v>
+        <v>0.2454218220313369</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>113812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95237</v>
+        <v>95643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134161</v>
+        <v>134049</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1706272510371426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1427793751659889</v>
+        <v>0.1433878799913375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2011349412160622</v>
+        <v>0.2009670451196414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -1906,19 +1906,19 @@
         <v>121425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102839</v>
+        <v>103087</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>142068</v>
+        <v>140755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.184355362405963</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.156137271500417</v>
+        <v>0.1565132264624137</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2156968049583219</v>
+        <v>0.2137029956908067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>233</v>
@@ -1927,19 +1927,19 @@
         <v>235237</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>209104</v>
+        <v>207094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264625</v>
+        <v>262752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1774479398895288</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1577344012016372</v>
+        <v>0.1562184890193427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1996163571698269</v>
+        <v>0.1982030318362827</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>205354</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>181417</v>
+        <v>182175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>229214</v>
+        <v>230225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3183156918245026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2812124316464233</v>
+        <v>0.2823867637507352</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3553018355980364</v>
+        <v>0.356868263342729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>214</v>
@@ -2052,19 +2052,19 @@
         <v>231307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205589</v>
+        <v>206471</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>256311</v>
+        <v>255512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3587277926504293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.318842324087877</v>
+        <v>0.3202098545316066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.397505953504134</v>
+        <v>0.3962671561336114</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>395</v>
@@ -2073,19 +2073,19 @@
         <v>436661</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>399763</v>
+        <v>404137</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>469637</v>
+        <v>476502</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3385165999215113</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3099121076669362</v>
+        <v>0.3133031756692218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3640814840372849</v>
+        <v>0.3694033929568798</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>127298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>106948</v>
+        <v>106307</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>148933</v>
+        <v>149121</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.19732300767847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1657784233312974</v>
+        <v>0.164785550280769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2308581175673286</v>
+        <v>0.2311495082632689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>121</v>
@@ -2123,19 +2123,19 @@
         <v>127640</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>108143</v>
+        <v>110450</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149847</v>
+        <v>152059</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1979531991305762</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1677165199197647</v>
+        <v>0.171293496730838</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2323942643631822</v>
+        <v>0.2358237418244393</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>234</v>
@@ -2144,19 +2144,19 @@
         <v>254938</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>225840</v>
+        <v>228929</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>285010</v>
+        <v>284737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1976380232145925</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1750798817721465</v>
+        <v>0.1774746246062574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2209512496523491</v>
+        <v>0.2207396784222719</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>128644</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>109407</v>
+        <v>109354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>151691</v>
+        <v>150994</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1994085705072347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1695894080999046</v>
+        <v>0.1695080041634305</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2351331383043354</v>
+        <v>0.2340538364125818</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -2194,19 +2194,19 @@
         <v>120006</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>100717</v>
+        <v>100248</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141581</v>
+        <v>139708</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1861134732372614</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1561990286370481</v>
+        <v>0.155472065854953</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2195740431046121</v>
+        <v>0.2166696898398668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>228</v>
@@ -2215,19 +2215,19 @@
         <v>248649</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>223117</v>
+        <v>217574</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>278424</v>
+        <v>276668</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1927627136326222</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1729688521293512</v>
+        <v>0.1686719995809965</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2158451981307755</v>
+        <v>0.2144842387472899</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>90513</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73930</v>
+        <v>71899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109275</v>
+        <v>107359</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1403027374448062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1145979767868191</v>
+        <v>0.1114500651991311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1693852627068723</v>
+        <v>0.1664150594662627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -2265,19 +2265,19 @@
         <v>96471</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78277</v>
+        <v>80089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115811</v>
+        <v>116535</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1496142181693433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1213977902033352</v>
+        <v>0.1242075096154757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1796081327807308</v>
+        <v>0.1807305906532873</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -2286,19 +2286,19 @@
         <v>186984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162169</v>
+        <v>161448</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>216505</v>
+        <v>214997</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1449572929496951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1257199248149056</v>
+        <v>0.1251610978575807</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.167843064802728</v>
+        <v>0.1666744539748771</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>93317</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75082</v>
+        <v>76133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>112144</v>
+        <v>114595</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1446499925449864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1163829611773315</v>
+        <v>0.1180133773590616</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1738332872368181</v>
+        <v>0.1776316219865283</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -2336,19 +2336,19 @@
         <v>69375</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54203</v>
+        <v>54372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86738</v>
+        <v>87163</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1075913168123897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08406176775239926</v>
+        <v>0.08432351400849708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1345194324897747</v>
+        <v>0.1351794588020261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>146</v>
@@ -2357,19 +2357,19 @@
         <v>162692</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>138946</v>
+        <v>138237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>188071</v>
+        <v>188717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1261253702815789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1077161861051601</v>
+        <v>0.1071668045779653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1457996806996643</v>
+        <v>0.1463009398753202</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>221923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>199141</v>
+        <v>202633</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>244995</v>
+        <v>246784</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4723285853916965</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.423840964129191</v>
+        <v>0.4312723389513275</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5214338504575012</v>
+        <v>0.5252413094206738</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>219</v>
@@ -2482,19 +2482,19 @@
         <v>248583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>223858</v>
+        <v>223849</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>270748</v>
+        <v>272066</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5027597577646685</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.452753273973691</v>
+        <v>0.4527350692300912</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5475900541569849</v>
+        <v>0.550255928080066</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>414</v>
@@ -2503,19 +2503,19 @@
         <v>470506</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>437312</v>
+        <v>438591</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>505050</v>
+        <v>504467</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4879321438843316</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4535085589600273</v>
+        <v>0.4548353253081771</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5237557355241862</v>
+        <v>0.5231515081691777</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>95498</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>79202</v>
+        <v>77632</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116192</v>
+        <v>112503</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2032514816402822</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1685692758145748</v>
+        <v>0.1652275810742012</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2472974824073358</v>
+        <v>0.2394446647408061</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>76</v>
@@ -2553,19 +2553,19 @@
         <v>86059</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>68758</v>
+        <v>70343</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>105346</v>
+        <v>105946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1740543631610857</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1390633886832966</v>
+        <v>0.1422687272207838</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2130638689521825</v>
+        <v>0.2142771803973671</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>162</v>
@@ -2574,19 +2574,19 @@
         <v>181556</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>157996</v>
+        <v>156907</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>210559</v>
+        <v>207823</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1882806832621306</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1638473080199275</v>
+        <v>0.1627185299591825</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2183576832928857</v>
+        <v>0.2155205806755339</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>79203</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62989</v>
+        <v>61862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96826</v>
+        <v>96475</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1685706349553182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1340628967902685</v>
+        <v>0.1316640804652434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2060792123868352</v>
+        <v>0.205331462586018</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>63</v>
@@ -2624,19 +2624,19 @@
         <v>74465</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>58159</v>
+        <v>58319</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>91816</v>
+        <v>92461</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1506059992797598</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1176275510758409</v>
+        <v>0.1179514392098543</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1856992825374827</v>
+        <v>0.1870039356854966</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>134</v>
@@ -2645,19 +2645,19 @@
         <v>153668</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>129483</v>
+        <v>132419</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>178663</v>
+        <v>179286</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1593592828546867</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1342790945143202</v>
+        <v>0.1373232064257424</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.18528059332989</v>
+        <v>0.1859265214139524</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>54084</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41486</v>
+        <v>41150</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>71489</v>
+        <v>70427</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1151083682522173</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08829548969006233</v>
+        <v>0.08758172096532123</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1521521774773759</v>
+        <v>0.1498925279103209</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>50</v>
@@ -2695,19 +2695,19 @@
         <v>57773</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>44312</v>
+        <v>43740</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75031</v>
+        <v>75087</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1168469731830967</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08962199970437321</v>
+        <v>0.08846359494781757</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1517499367887334</v>
+        <v>0.1518629525812234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>99</v>
@@ -2716,19 +2716,19 @@
         <v>111857</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>90792</v>
+        <v>92330</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>132670</v>
+        <v>132794</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1159998364941262</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09415524289555646</v>
+        <v>0.09574919764044369</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1375839208325867</v>
+        <v>0.1377126654907859</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>19142</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11206</v>
+        <v>11255</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29866</v>
+        <v>30115</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04074092976048568</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02385060199439073</v>
+        <v>0.02395389999953174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0635645850976914</v>
+        <v>0.06409419055661897</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2766,19 +2766,19 @@
         <v>27556</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18208</v>
+        <v>18134</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41052</v>
+        <v>40571</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05573290661138929</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03682498558892078</v>
+        <v>0.03667524026983066</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08302856157908611</v>
+        <v>0.08205474698541626</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -2787,19 +2787,19 @@
         <v>46698</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32828</v>
+        <v>34793</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62896</v>
+        <v>63526</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04842805350472478</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03404424240117933</v>
+        <v>0.0360817225180624</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06522577241186847</v>
+        <v>0.06587881276564173</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>199872</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>181313</v>
+        <v>181454</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>217469</v>
+        <v>216774</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6016422346991984</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5457771722760749</v>
+        <v>0.5462013857246991</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6546121787341413</v>
+        <v>0.6525186850720165</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>211</v>
@@ -2912,19 +2912,19 @@
         <v>225883</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>206759</v>
+        <v>206112</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>245705</v>
+        <v>247183</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.599705089732652</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5489334596155593</v>
+        <v>0.5472166802931664</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6523325337567847</v>
+        <v>0.6562578115051806</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>404</v>
@@ -2933,19 +2933,19 @@
         <v>425755</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>395445</v>
+        <v>397654</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>451266</v>
+        <v>453168</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6006129345541452</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5578550427710741</v>
+        <v>0.5609718694761349</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6366017875133932</v>
+        <v>0.6392850923279029</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>57561</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45399</v>
+        <v>45608</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71591</v>
+        <v>73480</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1732662163057518</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1366559774929153</v>
+        <v>0.1372856411219658</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2154980716665653</v>
+        <v>0.2211835290298491</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2983,19 +2983,19 @@
         <v>71945</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>57417</v>
+        <v>55926</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88199</v>
+        <v>88234</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1910103429425207</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1524385124396651</v>
+        <v>0.1484802429382454</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2341633396518093</v>
+        <v>0.23425658154837</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>124</v>
@@ -3004,19 +3004,19 @@
         <v>129506</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>109105</v>
+        <v>109036</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>150967</v>
+        <v>151136</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1826945412047559</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1539142572919903</v>
+        <v>0.153817937536821</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2129694012322412</v>
+        <v>0.213207373864374</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>46548</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34305</v>
+        <v>34149</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>61012</v>
+        <v>60028</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1401159621920651</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1032626831286138</v>
+        <v>0.1027920756984494</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1836541836672876</v>
+        <v>0.1806927323769175</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>43</v>
@@ -3054,19 +3054,19 @@
         <v>45572</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33769</v>
+        <v>32826</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>59639</v>
+        <v>58984</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1209905890860488</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08965418436072201</v>
+        <v>0.08715141538024145</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1583389953559978</v>
+        <v>0.1565979500542671</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>89</v>
@@ -3075,19 +3075,19 @@
         <v>92120</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>76739</v>
+        <v>75935</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>111549</v>
+        <v>111997</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.129953713288558</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1082551523366427</v>
+        <v>0.1071222926870035</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1573617782991854</v>
+        <v>0.1579948853770174</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>17793</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11237</v>
+        <v>11235</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>27615</v>
+        <v>26998</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05355847872400982</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03382411286867772</v>
+        <v>0.03381790728188675</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08312340038877289</v>
+        <v>0.08126718962490992</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>23</v>
@@ -3125,19 +3125,19 @@
         <v>24819</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16448</v>
+        <v>16776</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>36184</v>
+        <v>36762</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06589268299935262</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04366971873058288</v>
+        <v>0.0445403842636463</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09606759731649726</v>
+        <v>0.0976020951509123</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -3146,19 +3146,19 @@
         <v>42612</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>31142</v>
+        <v>30894</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>57348</v>
+        <v>56896</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06011224649512358</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04393199049724334</v>
+        <v>0.04358224880674046</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08090112128285115</v>
+        <v>0.08026348370103038</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>10437</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5033</v>
+        <v>5624</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18359</v>
+        <v>18258</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03141710807897482</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01515113704505816</v>
+        <v>0.01692846621046495</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05526288322220697</v>
+        <v>0.05495887683525602</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -3196,19 +3196,19 @@
         <v>8438</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4125</v>
+        <v>4120</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16022</v>
+        <v>15776</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02240129523942588</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01095266813714644</v>
+        <v>0.01093783005208942</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04253691444243321</v>
+        <v>0.04188443402488443</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -3217,19 +3217,19 @@
         <v>18875</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>11402</v>
+        <v>12151</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>28867</v>
+        <v>30057</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02662656445741741</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01608486498064975</v>
+        <v>0.01714114099247247</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04072313900325592</v>
+        <v>0.04240126963277027</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>178599</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>165565</v>
+        <v>165377</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>191173</v>
+        <v>189835</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7139999591933707</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6618953475463739</v>
+        <v>0.6611448654512154</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7642692324609276</v>
+        <v>0.7589225178138633</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>198</v>
@@ -3342,19 +3342,19 @@
         <v>262727</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>241286</v>
+        <v>240766</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>281970</v>
+        <v>282382</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6746841313889671</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6196234270076183</v>
+        <v>0.6182882661536495</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7240998312773668</v>
+        <v>0.7251569280777012</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>408</v>
@@ -3363,19 +3363,19 @@
         <v>441326</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>416186</v>
+        <v>415603</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>466018</v>
+        <v>464947</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6900612526713261</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6507519728341645</v>
+        <v>0.6498413416041863</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7286699798270283</v>
+        <v>0.7269956362318949</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>32678</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23739</v>
+        <v>23981</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42762</v>
+        <v>43505</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1306414051706624</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09490234428476915</v>
+        <v>0.09587077803929615</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1709526659061585</v>
+        <v>0.1739226205700647</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>45</v>
@@ -3413,19 +3413,19 @@
         <v>59827</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>45323</v>
+        <v>45648</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>76438</v>
+        <v>77352</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1536361685657799</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.116388363033282</v>
+        <v>0.1172238459441668</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1962918383057446</v>
+        <v>0.1986409407266118</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>84</v>
@@ -3434,19 +3434,19 @@
         <v>92506</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>74974</v>
+        <v>74423</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>114244</v>
+        <v>110770</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1446425065896161</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1172295832484937</v>
+        <v>0.11636883282925</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.178633411294653</v>
+        <v>0.1732006275927489</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>20205</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13662</v>
+        <v>13424</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>28900</v>
+        <v>29190</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08077461860179688</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05461588547132006</v>
+        <v>0.05366478469879767</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1155355710048894</v>
+        <v>0.1166945124776472</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -3484,19 +3484,19 @@
         <v>33576</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>22894</v>
+        <v>23367</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>48010</v>
+        <v>47540</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08622361497369256</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05879123993940459</v>
+        <v>0.06000551805144753</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1232909586359623</v>
+        <v>0.1220830088216405</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>50</v>
@@ -3505,19 +3505,19 @@
         <v>53781</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>39584</v>
+        <v>39509</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>70398</v>
+        <v>70311</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08409241533331797</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06189370039560789</v>
+        <v>0.06177717589492356</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1100754583023771</v>
+        <v>0.1099387312316989</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>10483</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5751</v>
+        <v>5502</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>17923</v>
+        <v>17031</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04190946433372766</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02299210613744824</v>
+        <v>0.02199405170068855</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07165134403271325</v>
+        <v>0.06808708913468603</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>17</v>
@@ -3555,19 +3555,19 @@
         <v>21919</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>13114</v>
+        <v>14042</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>33477</v>
+        <v>34895</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05628774254132194</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03367632045381575</v>
+        <v>0.03606002342006934</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08596929312383561</v>
+        <v>0.0896102739110005</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>29</v>
@@ -3576,19 +3576,19 @@
         <v>32402</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>23233</v>
+        <v>21574</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>47737</v>
+        <v>45047</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05066414155981312</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03632802570010071</v>
+        <v>0.03373310827112561</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07464127705988854</v>
+        <v>0.07043648073243253</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>8173</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3459</v>
+        <v>3552</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14414</v>
+        <v>14412</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03267455270044238</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01382846648121209</v>
+        <v>0.0142013718479037</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05762512614605413</v>
+        <v>0.05761678462889215</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3626,19 +3626,19 @@
         <v>11358</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5078</v>
+        <v>6194</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>20642</v>
+        <v>21350</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02916834253023847</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01304058771822728</v>
+        <v>0.01590548962138019</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05300832444590067</v>
+        <v>0.05482629996698055</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>18</v>
@@ -3647,19 +3647,19 @@
         <v>19532</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>11906</v>
+        <v>11551</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>30061</v>
+        <v>30356</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03053968384592678</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01861577299549656</v>
+        <v>0.01806102288311776</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04700406169191366</v>
+        <v>0.04746436189462322</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>1067371</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1014639</v>
+        <v>1015254</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1120498</v>
+        <v>1127028</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3166234056993657</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.300980988744469</v>
+        <v>0.3011635735429037</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3323829057078508</v>
+        <v>0.3343200789127577</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1176</v>
@@ -3772,19 +3772,19 @@
         <v>1300804</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1241848</v>
+        <v>1243252</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1358955</v>
+        <v>1362902</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3693087066549181</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3525707991306044</v>
+        <v>0.3529693164260219</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.385818152897664</v>
+        <v>0.3869389920170206</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2197</v>
@@ -3793,19 +3793,19 @@
         <v>2368175</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2289623</v>
+        <v>2286837</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2455233</v>
+        <v>2443740</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3435437120755629</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3321483711593017</v>
+        <v>0.3317442034444189</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3561729672070295</v>
+        <v>0.3545057056235495</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>533743</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>495326</v>
+        <v>493556</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>574762</v>
+        <v>581564</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1583287479437607</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1469326852386943</v>
+        <v>0.146407642411109</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1704965406812992</v>
+        <v>0.1725141746279343</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>554</v>
@@ -3843,19 +3843,19 @@
         <v>588164</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>545736</v>
+        <v>547484</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>640131</v>
+        <v>638631</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1669845999803409</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.154938708952922</v>
+        <v>0.1554350832958709</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1817382668070412</v>
+        <v>0.1813124280307011</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1055</v>
@@ -3864,19 +3864,19 @@
         <v>1121907</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1056776</v>
+        <v>1067564</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1186195</v>
+        <v>1194498</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1627515790663988</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1533031577869003</v>
+        <v>0.1548681408448732</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1720775825980445</v>
+        <v>0.1732820160552842</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>617773</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>573383</v>
+        <v>577662</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>660611</v>
+        <v>666376</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1832554352202776</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1700873986129453</v>
+        <v>0.1713568519755262</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1959625510368303</v>
+        <v>0.1976728355303498</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>580</v>
@@ -3914,19 +3914,19 @@
         <v>603212</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>559962</v>
+        <v>556419</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>645714</v>
+        <v>645159</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.171256703468032</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1589776463831053</v>
+        <v>0.1579719658905775</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1833234248327662</v>
+        <v>0.1831658569590753</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1171</v>
@@ -3935,19 +3935,19 @@
         <v>1220985</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1154446</v>
+        <v>1161532</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1289668</v>
+        <v>1287071</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1771245120018877</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1674718602576235</v>
+        <v>0.1684997551988295</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1870880357847648</v>
+        <v>0.1867114062696578</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>625919</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>582763</v>
+        <v>584311</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>679048</v>
+        <v>673039</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1856716109089429</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1728699581246752</v>
+        <v>0.173329281279963</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2014316747765107</v>
+        <v>0.199649250667446</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>550</v>
@@ -3985,19 +3985,19 @@
         <v>562697</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>518685</v>
+        <v>517647</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>605212</v>
+        <v>607917</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1597542636361265</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1472589447321247</v>
+        <v>0.146964080920313</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1718245210773937</v>
+        <v>0.1725926545612579</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1149</v>
@@ -4006,19 +4006,19 @@
         <v>1188616</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1124669</v>
+        <v>1129210</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1252264</v>
+        <v>1251000</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1724287724627674</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1631522190040338</v>
+        <v>0.1638109032317097</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1816620221109854</v>
+        <v>0.181478576005537</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>526300</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1561208002276531</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>460</v>
@@ -4056,19 +4056,19 @@
         <v>467390</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1326957262605824</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>957</v>
@@ -4077,19 +4077,19 @@
         <v>993690</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1441514243933832</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
     </row>
     <row r="51">
